--- a/data/CreateCustomer1.xlsx
+++ b/data/CreateCustomer1.xlsx
@@ -42,12 +42,6 @@
     <t>Commune</t>
   </si>
   <si>
-    <t>Nguyễn Văn Hảo</t>
-  </si>
-  <si>
-    <t>Haohao@gmail.com</t>
-  </si>
-  <si>
     <t>89 Lê Quý Đôn</t>
   </si>
   <si>
@@ -60,24 +54,12 @@
     <t>Tỉnh Gia Lai</t>
   </si>
   <si>
-    <t>Ngô Thị Thanh Chung</t>
-  </si>
-  <si>
-    <t>thanhchung2109@gmail.com</t>
-  </si>
-  <si>
     <t>854 Yên Đỗ</t>
   </si>
   <si>
     <t>Phường Yên Thế</t>
   </si>
   <si>
-    <t>035795256</t>
-  </si>
-  <si>
-    <t>032561245</t>
-  </si>
-  <si>
     <t>065847561</t>
   </si>
   <si>
@@ -88,6 +70,24 @@
   </si>
   <si>
     <t>Tỉnh Bình Phước</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nguyên</t>
+  </si>
+  <si>
+    <t>Ngô Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Hoangnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>phuongthao2109@gmail.com</t>
+  </si>
+  <si>
+    <t>0976121870</t>
+  </si>
+  <si>
+    <t>0354451908</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,62 +459,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
